--- a/data/trans_bre/IP2005-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 12,43</t>
+          <t>-6,91; 12,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 12,62</t>
+          <t>-5,08; 12,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 17,88</t>
+          <t>-0,47; 18,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 20,71</t>
+          <t>-3,04; 20,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 16,32</t>
+          <t>-8,1; 15,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 16,35</t>
+          <t>-5,69; 16,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 22,98</t>
+          <t>-0,44; 24,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 29,02</t>
+          <t>-3,32; 28,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,34</t>
+          <t>-5,66; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,33</t>
+          <t>-4,14; 2,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,26</t>
+          <t>-1,94; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,72</t>
+          <t>-4,47; 2,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,52</t>
+          <t>-6,18; 1,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,62</t>
+          <t>-4,54; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 4,85</t>
+          <t>-2,11; 4,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,1</t>
+          <t>-4,88; 3,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,76</t>
+          <t>-1,11; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 2,17</t>
+          <t>-6,14; 1,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,89</t>
+          <t>-2,45; 5,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 1,95</t>
+          <t>-10,95; 3,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,04</t>
+          <t>-1,17; 9,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,19</t>
+          <t>-6,31; 2,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,48</t>
+          <t>-2,53; 6,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 2,18</t>
+          <t>-12,2; 3,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,8</t>
+          <t>-2,86; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,1</t>
+          <t>-3,13; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,38</t>
+          <t>-0,26; 4,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,44</t>
+          <t>-3,51; 2,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,18</t>
+          <t>-3,17; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,33</t>
+          <t>-3,4; 2,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,87</t>
+          <t>-0,29; 5,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,79</t>
+          <t>-3,9; 2,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,17%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 11,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 12,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 17,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 21,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 15,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 16,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 22,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 29,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 12,05</t>
+          <t>-5,26; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 12,92</t>
+          <t>-4,3; 2,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,57</t>
+          <t>-2,22; 4,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 20,43</t>
+          <t>-3,93; 3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 15,67</t>
+          <t>-5,81; 1,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 16,25</t>
+          <t>-4,72; 2,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 24,27</t>
+          <t>-2,38; 4,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 28,65</t>
+          <t>-4,37; 4,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-4,7%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,46</t>
+          <t>-1,32; 8,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,81</t>
+          <t>-5,99; 1,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,96</t>
+          <t>-2,44; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 2,78</t>
+          <t>-10,43; 2,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,67</t>
+          <t>-1,37; 10,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,17</t>
+          <t>-6,11; 1,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,45</t>
+          <t>-2,54; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,15</t>
+          <t>-11,79; 3,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,35</t>
+          <t>-2,78; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,91</t>
+          <t>-3,06; 2,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,57</t>
+          <t>-0,36; 4,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 3,03</t>
+          <t>-3,66; 2,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,71</t>
+          <t>-3,08; 2,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,01</t>
+          <t>-3,33; 2,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,15</t>
+          <t>-0,34; 5,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,45</t>
+          <t>-4,1; 3,31</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,68</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 2,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 4,58</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 2,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 3,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 2,43</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 5,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 2,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
